--- a/public/file_mau_ds_cau_hoi.xlsx
+++ b/public/file_mau_ds_cau_hoi.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+  <si>
+    <t>STT</t>
+  </si>
   <si>
     <t xml:space="preserve">Nội dung câu hỏi   </t>
   </si>
@@ -26,13 +29,25 @@
   </si>
   <si>
     <t>Em muốn làm lại thẻ sinh viên thì làm ở đâu ạ?</t>
+  </si>
+  <si>
+    <t>Em muốn xin giấy chứng nhận giáo dục thể chất thì xin ở đâu?</t>
+  </si>
+  <si>
+    <t>Em liên hệ Ban QLĐT để xin giấy chứng nhận giáo dục thể chất</t>
+  </si>
+  <si>
+    <t>Em muốn xin chứng chỉ quốc phòng thì xin ở đâu?</t>
+  </si>
+  <si>
+    <t>Em liên hệ Khoa Giáo dục quốc phòng để lấy chứng chỉ quốc phòng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -40,14 +55,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="12.0"/>
       <color rgb="FF434343"/>
-      <name val="Arial"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="3">
@@ -70,7 +91,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -79,6 +100,9 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -296,8 +320,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="47.13"/>
-    <col customWidth="1" min="2" max="2" width="46.88"/>
+    <col customWidth="1" min="1" max="1" width="7.63"/>
+    <col customWidth="1" min="2" max="2" width="58.5"/>
+    <col customWidth="1" min="3" max="3" width="56.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -307,21 +332,52 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
+      <c r="A2" s="2">
+        <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
